--- a/biology/Zoologie/Eirenis_persicus/Eirenis_persicus.xlsx
+++ b/biology/Zoologie/Eirenis_persicus/Eirenis_persicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis persicus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis persicus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud-est de la Turquie ;
 dans le sud de l'Arménie ;
 dans l'est de l'Irak ;
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Anderson indique que le spécimen en sa possession mesure environ 25 cm dont 8 cm de queue. Son dos est brun olivâtre clair et sa face ventrale jaune verdâtre. Sa tête est ornée d'une grande tache noire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Anderson indique que le spécimen en sa possession mesure environ 25 cm dont 8 cm de queue. Son dos est brun olivâtre clair et sa face ventrale jaune verdâtre. Sa tête est ornée d'une grande tache noire.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 avril 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 avril 2013) :
 Eirenis persicus nigrofasciatus (Nikoslky, 1907) - Sud-Ouest de l'Iran et régions adjacentes en Irak
 Eirenis persicus persicus (Anderson, 1872)</t>
         </is>
@@ -611,7 +629,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, persicus, lui a été donné en référence au lieu de sa découverte, la Perse, territoire qui correspond actuellement à l'Iran.
 </t>
@@ -642,7 +662,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anderson, 1872 : On some Persian, Himalayan, and other Reptiles. Proceedings of the Zoological Society of London, vol. 1872, p. 371-404 (texte intégral).
 Nikolsky, 1907 : Reptiles et amphibiens recueillis (part.) M. N. A. Zarudny en Perse en 1903-1904. Annuaire du Musée Zoologique de l’Académie Impériale des Sciences de St.-Pétersbourg, vol. 10, p. 260-301.</t>
